--- a/dev/results/output_file_ANC.xlsx
+++ b/dev/results/output_file_ANC.xlsx
@@ -565,7 +565,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2.043316125869751</v>
+        <v>2.01509952545166</v>
       </c>
       <c r="B2">
         <v>1</v>
